--- a/muckup.xlsx
+++ b/muckup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022\fresa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1192923513\Documents\millingmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9B820D-8D77-46B9-B938-0BAF0A4187DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9AEBEC-0E23-492E-AB01-8E6080C89670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28A5B1D0-6711-42BC-AF37-1C4910C44387}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{28A5B1D0-6711-42BC-AF37-1C4910C44387}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <t>seguimiento a vendedores</t>
   </si>
   <si>
-    <t xml:space="preserve">seleccionar vendedor </t>
+    <t>seleccionar vendedor  de los asesores</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
             <c:numRef>
               <c:f>[1]tables!$F$4:$F$35</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>10850</c:v>
@@ -716,7 +716,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1024,7 +1024,7 @@
             <c:numRef>
               <c:f>[1]tables!$E$41:$E$69</c:f>
               <c:numCache>
-                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>139029750</c:v>
@@ -1207,7 +1207,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3744,7 +3744,7 @@
             <c:numRef>
               <c:f>[1]tables!$H$205:$H$216</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.20467337540508274</c:v>
@@ -3998,7 +3998,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11254,13 +11254,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F205362E-815D-4CCA-AC28-A1CC7E4DA218}">
   <dimension ref="A2:AB85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11274,12 +11274,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -11287,12 +11287,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="R30" t="s">
         <v>8</v>
       </c>
@@ -11306,47 +11306,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="R32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>18</v>
       </c>
